--- a/PROJECT/Project Plan/GANTT-Chart/TINF19C_GanttChart_Team_1_0v1.xlsx
+++ b/PROJECT/Project Plan/GANTT-Chart/TINF19C_GanttChart_Team_1_0v1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Gantt chart</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Error Detecting</t>
   </si>
   <si>
-    <t>PLCopen XML Testing</t>
-  </si>
-  <si>
-    <t>AML XML Testing</t>
-  </si>
-  <si>
     <t>GUI Testing</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>21 d</t>
   </si>
   <si>
-    <t>28 d</t>
-  </si>
-  <si>
     <t>Navigation tree</t>
   </si>
   <si>
@@ -144,12 +135,6 @@
     <t>Variables Interface</t>
   </si>
   <si>
-    <t>Console</t>
-  </si>
-  <si>
-    <t>Debugger</t>
-  </si>
-  <si>
     <t>Phase 2-Architecture/Design</t>
   </si>
   <si>
@@ -166,6 +151,12 @@
   </si>
   <si>
     <t>May 2021</t>
+  </si>
+  <si>
+    <t>Export Testing</t>
+  </si>
+  <si>
+    <t>35 d</t>
   </si>
 </sst>
 </file>
@@ -369,7 +360,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
@@ -386,7 +376,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -423,6 +412,8 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Akzent1" xfId="3" builtinId="30"/>
@@ -722,19 +713,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ38"/>
+  <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+      <selection activeCell="AR21" sqref="AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="33"/>
+    <col min="3" max="3" width="11.5546875" style="31"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="38" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" style="3" customWidth="1"/>
     <col min="10" max="12" width="2.77734375" style="1" customWidth="1"/>
@@ -761,87 +752,87 @@
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="43">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="41">
         <v>44136</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="43">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="41">
         <v>44197</v>
       </c>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="43">
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="41">
         <v>44228</v>
       </c>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="43">
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="41">
         <v>44287</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="43"/>
     </row>
     <row r="4" spans="1:43" s="4" customFormat="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="5">
         <v>2</v>
       </c>
@@ -949,18 +940,18 @@
       </c>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -986,31 +977,31 @@
       <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="37">
+      <c r="A6" s="35">
         <v>2</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="32">
         <v>44106</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <v>44141</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="25"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1034,31 +1025,31 @@
       <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>3</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="34">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="32">
         <v>44106</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>44141</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="25"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1082,31 +1073,31 @@
       <c r="AP7" s="1"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="32">
         <v>44106</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="32">
         <v>44141</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="24"/>
       <c r="P8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1130,31 +1121,31 @@
       <c r="AP8" s="1"/>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>5</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="32">
         <v>44106</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <v>44141</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="25"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="24"/>
       <c r="P9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1178,31 +1169,31 @@
       <c r="AP9" s="1"/>
     </row>
     <row r="10" spans="1:43" s="4" customFormat="1">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>6</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="32">
         <v>44106</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <v>44141</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="23"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="26"/>
+      <c r="O10" s="25"/>
       <c r="Q10" s="6"/>
       <c r="U10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1212,18 +1203,18 @@
       <c r="AQ10" s="6"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>7</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1249,27 +1240,27 @@
       <c r="AP11" s="1"/>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>8</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="E12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="32">
         <v>44148</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="32">
         <v>44162</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="35"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1293,28 +1284,27 @@
       <c r="AP12" s="1"/>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>9</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="37" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="E13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="32">
         <v>44120</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="32">
         <v>44127</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="H13" s="35"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="11"/>
       <c r="P13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1338,37 +1328,37 @@
       <c r="AP13" s="1"/>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="34">
-        <v>44232</v>
-      </c>
-      <c r="G14" s="34">
-        <v>44246</v>
-      </c>
-      <c r="H14" s="37"/>
+      <c r="E14" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="32">
+        <v>44201</v>
+      </c>
+      <c r="G14" s="32">
+        <v>44215</v>
+      </c>
+      <c r="H14" s="35"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
       <c r="Y14" s="1"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -1381,50 +1371,51 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="1:43" s="4" customFormat="1">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>11</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="34">
-        <v>44232</v>
-      </c>
-      <c r="G15" s="34">
-        <v>44246</v>
-      </c>
-      <c r="H15" s="37"/>
+      <c r="E15" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="32">
+        <v>44201</v>
+      </c>
+      <c r="G15" s="32">
+        <v>44215</v>
+      </c>
+      <c r="H15" s="35"/>
       <c r="I15" s="7"/>
       <c r="M15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="U15" s="6"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
+      <c r="AA15" s="7"/>
       <c r="AD15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AM15" s="6"/>
       <c r="AQ15" s="6"/>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="37">
+      <c r="A16" s="35">
         <v>12</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="37"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="35"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1450,33 +1441,30 @@
       <c r="AP16" s="1"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="37">
+      <c r="A17" s="35">
         <v>13</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="34">
-        <v>44120</v>
-      </c>
-      <c r="G17" s="34">
-        <v>44134</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="13"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32">
+        <v>44177</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="K17"/>
+      <c r="L17"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -1496,28 +1484,26 @@
       <c r="AP17" s="1"/>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <v>14</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="41" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="34">
-        <v>44232</v>
-      </c>
-      <c r="G18" s="34">
-        <v>44239</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
+      <c r="E18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
+        <v>44237</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1528,8 +1514,8 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="19"/>
       <c r="AC18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -1543,24 +1529,22 @@
       <c r="AP18" s="1"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <v>15</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="34">
-        <v>44232</v>
-      </c>
-      <c r="G19" s="34">
-        <v>44239</v>
-      </c>
-      <c r="H19" s="37"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32">
+        <v>44320</v>
+      </c>
+      <c r="H19" s="35"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1571,41 +1555,41 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AN19" s="1"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="19"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="37">
+      <c r="A20" s="35">
         <v>16</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36">
         <v>9.15</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="34">
-        <v>44239</v>
-      </c>
-      <c r="G20" s="34">
-        <v>44260</v>
-      </c>
-      <c r="H20" s="37"/>
+      <c r="D20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32">
+        <v>44313</v>
+      </c>
+      <c r="H20" s="35"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1617,41 +1601,37 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="20"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="48"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>17</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36">
         <v>9.15</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="34">
-        <v>44239</v>
-      </c>
-      <c r="G21" s="34">
-        <v>44260</v>
-      </c>
-      <c r="H21" s="37"/>
+      <c r="D21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32">
+        <v>44285</v>
+      </c>
+      <c r="H21" s="35"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1662,14 +1642,14 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="13"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -1679,26 +1659,24 @@
       <c r="AP21" s="1"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="37">
+      <c r="A22" s="35">
         <v>18</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36">
         <v>9.15</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="34">
-        <v>44239</v>
-      </c>
-      <c r="G22" s="34">
-        <v>44260</v>
-      </c>
-      <c r="H22" s="37"/>
+      <c r="D22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32">
+        <v>44285</v>
+      </c>
+      <c r="H22" s="35"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1709,14 +1687,14 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="13"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -1726,26 +1704,24 @@
       <c r="AP22" s="1"/>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="37">
+      <c r="A23" s="35">
         <v>19</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36">
         <v>9.15</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="34">
-        <v>44239</v>
-      </c>
-      <c r="G23" s="34">
-        <v>44260</v>
-      </c>
-      <c r="H23" s="37"/>
+      <c r="D23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32">
+        <v>44264</v>
+      </c>
+      <c r="H23" s="35"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1756,13 +1732,13 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="1"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
       <c r="AG23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -1773,24 +1749,22 @@
       <c r="AP23" s="1"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="37">
+      <c r="A24" s="35">
         <v>20</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="41" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="34">
-        <v>44260</v>
-      </c>
-      <c r="G24" s="34">
-        <v>44281</v>
-      </c>
-      <c r="H24" s="37"/>
+      <c r="E24" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32">
+        <v>44250</v>
+      </c>
+      <c r="H24" s="35"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1801,13 +1775,14 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="28"/>
-      <c r="AD24"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="13"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -1817,24 +1792,24 @@
       <c r="AP24" s="1"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>21</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="34">
-        <v>44260</v>
-      </c>
-      <c r="G25" s="34">
-        <v>44281</v>
-      </c>
-      <c r="H25" s="37"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36">
+        <v>10</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32">
+        <v>44278</v>
+      </c>
+      <c r="H25" s="35"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1845,13 +1820,13 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="28"/>
-      <c r="AD25"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="13"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -1860,71 +1835,52 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:43">
-      <c r="A26" s="37">
+    <row r="26" spans="1:43" s="4" customFormat="1">
+      <c r="A26" s="35">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="34">
-        <v>44260</v>
-      </c>
-      <c r="G26" s="34">
-        <v>44281</v>
-      </c>
-      <c r="H26" s="37"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="28"/>
-      <c r="AD26"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36">
+        <v>11</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32">
+        <v>44308</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="7"/>
+      <c r="AH26" s="6"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="6"/>
+      <c r="AQ26" s="6"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="37">
+      <c r="A27" s="35">
         <v>23</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38">
-        <v>10</v>
-      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="34">
-        <v>44260</v>
-      </c>
-      <c r="G27" s="34">
-        <v>44281</v>
-      </c>
-      <c r="H27" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="35"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1937,12 +1893,10 @@
       <c r="Y27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="13"/>
+      <c r="AC27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -1951,54 +1905,70 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:43" s="4" customFormat="1">
-      <c r="A28" s="37">
+    <row r="28" spans="1:43">
+      <c r="A28" s="35">
         <v>24</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38">
-        <v>11</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="34">
-        <v>44260</v>
-      </c>
-      <c r="G28" s="34">
-        <v>44281</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="7"/>
-      <c r="M28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="15"/>
-      <c r="AM28" s="6"/>
-      <c r="AQ28" s="6"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="32">
+        <v>44309</v>
+      </c>
+      <c r="G28" s="32">
+        <v>44329</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="1"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="37">
+      <c r="A29" s="35">
         <v>25</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="32">
+        <v>44309</v>
+      </c>
+      <c r="G29" s="32">
+        <v>44329</v>
+      </c>
+      <c r="H29" s="35"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2014,34 +1984,38 @@
       <c r="AC29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AI29" s="1"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29"/>
+      <c r="AI29" s="3"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
       <c r="AP29" s="1"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="37">
+      <c r="A30" s="35">
         <v>26</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G30" s="34">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36">
+        <v>22</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="32">
         <v>44309</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="G30" s="32">
+        <v>44329</v>
+      </c>
+      <c r="H30" s="35"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2057,35 +2031,38 @@
       <c r="AC30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="34"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="34"/>
       <c r="AP30" s="1"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>27</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G31" s="34">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36">
+        <v>12</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="32">
         <v>44309</v>
       </c>
-      <c r="H31" s="37"/>
+      <c r="G31" s="32">
+        <v>44329</v>
+      </c>
+      <c r="H31" s="35"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2101,37 +2078,38 @@
       <c r="AC31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
       <c r="AP31" s="1"/>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="37">
+      <c r="A32" s="35">
         <v>28</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38">
-        <v>19.2</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G32" s="34">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="32">
         <v>44309</v>
       </c>
-      <c r="H32" s="37"/>
+      <c r="G32" s="32">
+        <v>44329</v>
+      </c>
+      <c r="H32" s="35"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -2147,37 +2125,38 @@
       <c r="AC32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
       <c r="AP32" s="1"/>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" s="37">
+      <c r="A33" s="35">
         <v>29</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38">
-        <v>19.2</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G33" s="34">
+      <c r="B33" s="35"/>
+      <c r="C33" s="36">
+        <v>15</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="32">
         <v>44309</v>
       </c>
-      <c r="H33" s="37"/>
+      <c r="G33" s="32">
+        <v>44329</v>
+      </c>
+      <c r="H33" s="35"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2193,192 +2172,54 @@
       <c r="AC33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="34"/>
+      <c r="AO33" s="34"/>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:43">
-      <c r="A34" s="37">
+    <row r="34" spans="1:43" s="4" customFormat="1">
+      <c r="A34" s="35">
         <v>30</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38">
-        <v>12</v>
-      </c>
-      <c r="D34" s="37" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G34" s="34">
+      <c r="E34" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="32">
         <v>44309</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
+      <c r="G34" s="32">
+        <v>44329</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="7"/>
+      <c r="M34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AG34" s="29"/>
+      <c r="AI34" s="7"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+      <c r="AQ34" s="6"/>
     </row>
     <row r="35" spans="1:43">
-      <c r="A35" s="37">
-        <v>31</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G35" s="34">
-        <v>44309</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-    </row>
-    <row r="36" spans="1:43">
-      <c r="A36" s="37">
-        <v>32</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38">
-        <v>15</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G36" s="34">
-        <v>44309</v>
-      </c>
-      <c r="H36" s="37"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-    </row>
-    <row r="37" spans="1:43" s="4" customFormat="1">
-      <c r="A37" s="37">
-        <v>33</v>
-      </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="34">
-        <v>44281</v>
-      </c>
-      <c r="G37" s="34">
-        <v>44309</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="7"/>
-      <c r="M37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="6"/>
-      <c r="AQ37" s="6"/>
-    </row>
-    <row r="38" spans="1:43">
-      <c r="D38" s="24"/>
+      <c r="D35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
